--- a/SALES DATA FOR III B.COM CS - A & B.xlsx
+++ b/SALES DATA FOR III B.COM CS - A & B.xlsx
@@ -1605,7 +1605,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -2033,15 +2033,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>245565</xdr:colOff>
+      <xdr:colOff>244463</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>81260</xdr:rowOff>
+      <xdr:rowOff>75790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>888659</xdr:colOff>
+      <xdr:colOff>887557</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>81260</xdr:rowOff>
+      <xdr:rowOff>75790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2350,15 +2350,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R406"/>
+  <dimension ref="A1:V406"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="J112" zoomScale="40">
-      <selection activeCell="O147" sqref="O147"/>
+    <sheetView workbookViewId="0" topLeftCell="H51" zoomScale="30">
+      <selection activeCell="S97" sqref="S97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" customHeight="1" defaultColWidth="12"/>
   <cols>
-    <col min="1" max="2" customWidth="1" width="7.6289062" style="0"/>
+    <col min="1" max="1" customWidth="1" width="7.6289062" style="0"/>
+    <col min="2" max="2" customWidth="1" width="12.503906" style="0"/>
     <col min="3" max="3" customWidth="1" width="5.8789062" style="0"/>
     <col min="4" max="4" customWidth="1" width="11.5" style="0"/>
     <col min="5" max="5" customWidth="1" width="14.128906" style="0"/>
@@ -4787,6 +4788,21 @@
         <v>3.0</v>
       </c>
       <c r="H106" s="5"/>
+      <c r="M106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="8:8" ht="15.75" customHeight="1">
       <c r="A107" s="3">
@@ -11720,168 +11736,168 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A72:A76"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="H2:H6"/>
     <mergeCell ref="H7:H11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="H17:H21"/>
+    <mergeCell ref="H152:H156"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A342:A346"/>
+    <mergeCell ref="A302:A306"/>
+    <mergeCell ref="H227:H231"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="H397:H401"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A182:A186"/>
     <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A357:A361"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A342:A346"/>
-    <mergeCell ref="A262:A266"/>
-    <mergeCell ref="A302:A306"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A247:A251"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A192:A196"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="H152:H156"/>
-    <mergeCell ref="H227:H231"/>
-    <mergeCell ref="H212:H216"/>
-    <mergeCell ref="H222:H226"/>
-    <mergeCell ref="H182:H186"/>
-    <mergeCell ref="H147:H151"/>
-    <mergeCell ref="H102:H106"/>
-    <mergeCell ref="H397:H401"/>
-    <mergeCell ref="H197:H201"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A397:A401"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A232:A236"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A202:A206"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="A212:A216"/>
-    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A257:A261"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="H377:H381"/>
     <mergeCell ref="A402:A406"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A392:A396"/>
-    <mergeCell ref="A382:A386"/>
-    <mergeCell ref="A377:A381"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="H307:H311"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H257:H261"/>
-    <mergeCell ref="H297:H301"/>
-    <mergeCell ref="A227:A231"/>
-    <mergeCell ref="A322:A326"/>
-    <mergeCell ref="H312:H316"/>
-    <mergeCell ref="H372:H376"/>
-    <mergeCell ref="A307:A311"/>
-    <mergeCell ref="H247:H251"/>
-    <mergeCell ref="H362:H366"/>
-    <mergeCell ref="H192:H196"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H302:H306"/>
-    <mergeCell ref="H187:H191"/>
-    <mergeCell ref="H252:H256"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="A317:A321"/>
-    <mergeCell ref="A267:A271"/>
-    <mergeCell ref="H322:H326"/>
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="H67:H71"/>
-    <mergeCell ref="H72:H76"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="H367:H371"/>
-    <mergeCell ref="H332:H336"/>
-    <mergeCell ref="H352:H356"/>
-    <mergeCell ref="H347:H351"/>
-    <mergeCell ref="H357:H361"/>
-    <mergeCell ref="H337:H341"/>
-    <mergeCell ref="H342:H346"/>
-    <mergeCell ref="H377:H381"/>
-    <mergeCell ref="H327:H331"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A327:A331"/>
-    <mergeCell ref="H267:H271"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A332:A336"/>
+    <mergeCell ref="A107:A111"/>
     <mergeCell ref="H392:H396"/>
     <mergeCell ref="H292:H296"/>
-    <mergeCell ref="H287:H291"/>
+    <mergeCell ref="H332:H336"/>
+    <mergeCell ref="H322:H326"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A317:A321"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A367:A371"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A352:A356"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="H352:H356"/>
+    <mergeCell ref="H187:H191"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A322:A326"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A337:A341"/>
+    <mergeCell ref="H252:H256"/>
+    <mergeCell ref="H357:H361"/>
+    <mergeCell ref="H267:H271"/>
     <mergeCell ref="H282:H286"/>
     <mergeCell ref="H277:H281"/>
-    <mergeCell ref="H387:H391"/>
-    <mergeCell ref="H77:H81"/>
+    <mergeCell ref="A372:A376"/>
+    <mergeCell ref="A212:A216"/>
+    <mergeCell ref="A327:A331"/>
+    <mergeCell ref="A267:A271"/>
+    <mergeCell ref="A227:A231"/>
+    <mergeCell ref="A307:A311"/>
     <mergeCell ref="A362:A366"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A337:A341"/>
-    <mergeCell ref="A352:A356"/>
-    <mergeCell ref="A367:A371"/>
-    <mergeCell ref="A372:A376"/>
     <mergeCell ref="A387:A391"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="H182:H186"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="H197:H201"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A392:A396"/>
+    <mergeCell ref="A262:A266"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H22:H26"/>
     <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="A107:A111"/>
     <mergeCell ref="A347:A351"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="H237:H241"/>
-    <mergeCell ref="H272:H276"/>
-    <mergeCell ref="H202:H206"/>
+    <mergeCell ref="H327:H331"/>
+    <mergeCell ref="H157:H161"/>
+    <mergeCell ref="H317:H321"/>
+    <mergeCell ref="A357:A361"/>
+    <mergeCell ref="A272:A276"/>
+    <mergeCell ref="H287:H291"/>
+    <mergeCell ref="H122:H126"/>
     <mergeCell ref="H207:H211"/>
+    <mergeCell ref="H162:H166"/>
+    <mergeCell ref="H217:H221"/>
+    <mergeCell ref="H232:H236"/>
+    <mergeCell ref="H127:H131"/>
+    <mergeCell ref="H172:H176"/>
     <mergeCell ref="H132:H136"/>
-    <mergeCell ref="H177:H181"/>
+    <mergeCell ref="H342:H346"/>
     <mergeCell ref="H97:H101"/>
     <mergeCell ref="H137:H141"/>
-    <mergeCell ref="H157:H161"/>
-    <mergeCell ref="H162:H166"/>
+    <mergeCell ref="H242:H246"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="H167:H171"/>
+    <mergeCell ref="H202:H206"/>
     <mergeCell ref="H142:H146"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="H217:H221"/>
     <mergeCell ref="H112:H116"/>
     <mergeCell ref="H117:H121"/>
-    <mergeCell ref="H232:H236"/>
-    <mergeCell ref="H127:H131"/>
-    <mergeCell ref="H92:H96"/>
-    <mergeCell ref="H172:H176"/>
-    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H262:H266"/>
+    <mergeCell ref="H312:H316"/>
+    <mergeCell ref="H367:H371"/>
+    <mergeCell ref="H347:H351"/>
+    <mergeCell ref="H337:H341"/>
+    <mergeCell ref="H77:H81"/>
     <mergeCell ref="H42:H46"/>
     <mergeCell ref="H47:H51"/>
-    <mergeCell ref="H167:H171"/>
+    <mergeCell ref="H297:H301"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="H372:H376"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="H147:H151"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="H102:H106"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="H72:H76"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="H387:H391"/>
+    <mergeCell ref="H177:H181"/>
     <mergeCell ref="H402:H406"/>
-    <mergeCell ref="H317:H321"/>
+    <mergeCell ref="H382:H386"/>
     <mergeCell ref="A252:A256"/>
     <mergeCell ref="A312:A316"/>
-    <mergeCell ref="H242:H246"/>
-    <mergeCell ref="H382:H386"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="H262:H266"/>
+    <mergeCell ref="A292:A296"/>
     <mergeCell ref="A297:A301"/>
     <mergeCell ref="A282:A286"/>
     <mergeCell ref="A277:A281"/>
     <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A292:A296"/>
-    <mergeCell ref="A272:A276"/>
-    <mergeCell ref="A332:A336"/>
-    <mergeCell ref="A257:A261"/>
+    <mergeCell ref="H272:H276"/>
+    <mergeCell ref="H92:H96"/>
+    <mergeCell ref="H362:H366"/>
+    <mergeCell ref="H57:H61"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A377:A381"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="H257:H261"/>
+    <mergeCell ref="H247:H251"/>
+    <mergeCell ref="A382:A386"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="H307:H311"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="H212:H216"/>
+    <mergeCell ref="H192:H196"/>
+    <mergeCell ref="H222:H226"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="H302:H306"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A397:A401"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H237:H241"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.0" footer="0.0"/>
   <drawing r:id="rId1"/>
@@ -11890,7 +11906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
